--- a/Applications/Qjurumirim.xlsx
+++ b/Applications/Qjurumirim.xlsx
@@ -24,12 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Qafl</t>
   </si>
   <si>
     <t>Qnat</t>
+  </si>
+  <si>
+    <t>Qdef</t>
+  </si>
+  <si>
+    <t>Vuperc</t>
   </si>
 </sst>
 </file>
@@ -347,2948 +353,5150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B367"/>
+  <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>150.47</v>
       </c>
       <c r="B2">
         <v>183.95</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>188</v>
+      </c>
+      <c r="D2">
+        <v>66.48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>178.62</v>
       </c>
       <c r="B3">
         <v>186.64</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>188</v>
+      </c>
+      <c r="D3">
+        <v>66.459999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>205</v>
       </c>
       <c r="B4">
         <v>230.45</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>205</v>
+      </c>
+      <c r="D4">
+        <v>66.459999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>209</v>
       </c>
       <c r="B5">
         <v>228.16</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>209</v>
+      </c>
+      <c r="D5">
+        <v>66.459999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>188</v>
       </c>
       <c r="B6">
         <v>186.61</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>188</v>
+      </c>
+      <c r="D6">
+        <v>66.459999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>164.11</v>
       </c>
       <c r="B7">
         <v>164.99</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>211</v>
+      </c>
+      <c r="D7">
+        <v>66.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>169.25</v>
       </c>
       <c r="B8">
         <v>162.63</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>188</v>
+      </c>
+      <c r="D8">
+        <v>66.28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>150.51</v>
       </c>
       <c r="B9">
         <v>165.33</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>188</v>
+      </c>
+      <c r="D9">
+        <v>66.17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>169.26</v>
       </c>
       <c r="B10">
         <v>208.09</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>188</v>
+      </c>
+      <c r="D10">
+        <v>66.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>188</v>
       </c>
       <c r="B11">
         <v>251.42</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>188</v>
+      </c>
+      <c r="D11">
+        <v>66.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>197.37</v>
       </c>
       <c r="B12">
         <v>241.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>188</v>
+      </c>
+      <c r="D12">
+        <v>66.150000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>197.37</v>
       </c>
       <c r="B13">
         <v>221.44</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>188</v>
+      </c>
+      <c r="D13">
+        <v>66.17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>197.37</v>
       </c>
       <c r="B14">
         <v>231.64</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>188</v>
+      </c>
+      <c r="D14">
+        <v>66.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>206.75</v>
       </c>
       <c r="B15">
         <v>210.59</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>188</v>
+      </c>
+      <c r="D15">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>216.12</v>
       </c>
       <c r="B16">
         <v>185.33</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>188</v>
+      </c>
+      <c r="D16">
+        <v>66.33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>234.89</v>
       </c>
       <c r="B17">
         <v>182.24</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>188</v>
+      </c>
+      <c r="D17">
+        <v>66.459999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>374.75</v>
       </c>
       <c r="B18">
         <v>215.38</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>187</v>
+      </c>
+      <c r="D18">
+        <v>66.97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>423.12</v>
       </c>
       <c r="B19">
         <v>329.37</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>188</v>
+      </c>
+      <c r="D19">
+        <v>67.61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>517.96</v>
       </c>
       <c r="B20">
         <v>443.43</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>188</v>
+      </c>
+      <c r="D20">
+        <v>68.510000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>518.9</v>
       </c>
       <c r="B21">
         <v>496.58</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>188</v>
+      </c>
+      <c r="D21">
+        <v>69.41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>519.84</v>
       </c>
       <c r="B22">
         <v>491.32</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>188</v>
+      </c>
+      <c r="D22">
+        <v>70.319999999999993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>472.18</v>
       </c>
       <c r="B23">
         <v>451.54</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>187</v>
+      </c>
+      <c r="D23">
+        <v>71.099999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>471.87</v>
       </c>
       <c r="B24">
         <v>458.74</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>186</v>
+      </c>
+      <c r="D24">
+        <v>71.88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>520.4</v>
       </c>
       <c r="B25">
         <v>501.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>186</v>
+      </c>
+      <c r="D25">
+        <v>72.790000000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>568.33000000000004</v>
       </c>
       <c r="B26">
         <v>549.44000000000005</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>185</v>
+      </c>
+      <c r="D26">
+        <v>73.84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>568.57000000000005</v>
       </c>
       <c r="B27">
         <v>551.28</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>184</v>
+      </c>
+      <c r="D27">
+        <v>74.89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>569.82000000000005</v>
       </c>
       <c r="B28">
         <v>533.80999999999995</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>184</v>
+      </c>
+      <c r="D28">
+        <v>75.94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>521.62</v>
       </c>
       <c r="B29">
         <v>540.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>183</v>
+      </c>
+      <c r="D29">
+        <v>76.87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>474.01</v>
       </c>
       <c r="B30">
         <v>544.29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>183</v>
+      </c>
+      <c r="D30">
+        <v>77.66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>426.05</v>
       </c>
       <c r="B31">
         <v>521.67999999999995</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>183</v>
+      </c>
+      <c r="D31">
+        <v>78.319999999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>376.8</v>
       </c>
       <c r="B32">
         <v>458.47</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>182</v>
+      </c>
+      <c r="D32">
+        <v>78.86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>279.52</v>
       </c>
       <c r="B33">
         <v>389.64</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>182</v>
+      </c>
+      <c r="D33">
+        <v>79.12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>270.83</v>
       </c>
       <c r="B34">
         <v>338.3</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>183</v>
+      </c>
+      <c r="D34">
+        <v>79.36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>240.59</v>
       </c>
       <c r="B35">
         <v>298.52</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>182</v>
+      </c>
+      <c r="D35">
+        <v>79.52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>200</v>
       </c>
       <c r="B36">
         <v>269.79000000000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>200</v>
+      </c>
+      <c r="D36">
+        <v>79.52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>180.47</v>
       </c>
       <c r="B37">
         <v>223.95</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>200</v>
+      </c>
+      <c r="D37">
+        <v>79.47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>170.7</v>
       </c>
       <c r="B38">
         <v>205.34</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>200</v>
+      </c>
+      <c r="D38">
+        <v>79.39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>151.19</v>
       </c>
       <c r="B39">
         <v>190.26</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>200</v>
+      </c>
+      <c r="D39">
+        <v>79.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>151.21</v>
       </c>
       <c r="B40">
         <v>172.63</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>200</v>
+      </c>
+      <c r="D40">
+        <v>79.12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>170.74</v>
       </c>
       <c r="B41">
         <v>165.46</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>200</v>
+      </c>
+      <c r="D41">
+        <v>79.040000000000006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>180.49</v>
       </c>
       <c r="B42">
         <v>158.72999999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>200</v>
+      </c>
+      <c r="D42">
+        <v>78.989999999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>200</v>
       </c>
       <c r="B43">
         <v>171.54</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>200</v>
+      </c>
+      <c r="D43">
+        <v>78.989999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>248.77</v>
       </c>
       <c r="B44">
         <v>218.37</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>200</v>
+      </c>
+      <c r="D44">
+        <v>79.12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>401.6</v>
       </c>
       <c r="B45">
         <v>294.26</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>304</v>
+      </c>
+      <c r="D45">
+        <v>79.39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>497.54</v>
       </c>
       <c r="B46">
         <v>334.66</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>351</v>
+      </c>
+      <c r="D46">
+        <v>79.790000000000006</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>546.66999999999996</v>
       </c>
       <c r="B47">
         <v>452.01</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>351</v>
+      </c>
+      <c r="D47">
+        <v>80.319999999999993</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>496.96</v>
       </c>
       <c r="B48">
         <v>481.28</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>350</v>
+      </c>
+      <c r="D48">
+        <v>80.72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>448.07</v>
       </c>
       <c r="B49">
         <v>490.06</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>350</v>
+      </c>
+      <c r="D49">
+        <v>80.989999999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>350</v>
       </c>
       <c r="B50">
         <v>445.37</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>350</v>
+      </c>
+      <c r="D50">
+        <v>80.989999999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>350</v>
       </c>
       <c r="B51">
         <v>368.31</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>350</v>
+      </c>
+      <c r="D51">
+        <v>80.989999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>244.93</v>
       </c>
       <c r="B52">
         <v>294.42</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>343</v>
+      </c>
+      <c r="D52">
+        <v>80.72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>241.01</v>
       </c>
       <c r="B53">
         <v>252.14</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>339</v>
+      </c>
+      <c r="D53">
+        <v>80.459999999999994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>241.09</v>
       </c>
       <c r="B54">
         <v>279.45</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>339</v>
+      </c>
+      <c r="D54">
+        <v>80.19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>339</v>
       </c>
       <c r="B55">
         <v>347.6</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>339</v>
+      </c>
+      <c r="D55">
+        <v>80.19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>339</v>
       </c>
       <c r="B56">
         <v>364.01</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>339</v>
+      </c>
+      <c r="D56">
+        <v>80.19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>339</v>
       </c>
       <c r="B57">
         <v>341.97</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>339</v>
+      </c>
+      <c r="D57">
+        <v>80.19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>319.43</v>
       </c>
       <c r="B58">
         <v>324.38</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>339</v>
+      </c>
+      <c r="D58">
+        <v>80.14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>307.64</v>
       </c>
       <c r="B59">
         <v>308.38</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>337</v>
+      </c>
+      <c r="D59">
+        <v>80.05</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>334</v>
       </c>
       <c r="B60">
         <v>321.16000000000003</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>334</v>
+      </c>
+      <c r="D60">
+        <v>80.05</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>385.93</v>
       </c>
       <c r="B61">
         <v>356.83</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>337</v>
+      </c>
+      <c r="D61">
+        <v>80.19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>371.16</v>
       </c>
       <c r="B62">
         <v>371.51</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>332</v>
+      </c>
+      <c r="D62">
+        <v>80.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>368.38</v>
       </c>
       <c r="B63">
         <v>361.36</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>339</v>
+      </c>
+      <c r="D63">
+        <v>80.38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>338</v>
       </c>
       <c r="B64">
         <v>323.29000000000002</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>338</v>
+      </c>
+      <c r="D64">
+        <v>80.38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>318.41000000000003</v>
       </c>
       <c r="B65">
         <v>278.94</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>338</v>
+      </c>
+      <c r="D65">
+        <v>80.319999999999993</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>240.13</v>
       </c>
       <c r="B66">
         <v>252.33</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>338</v>
+      </c>
+      <c r="D66">
+        <v>80.05</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>182.57</v>
       </c>
       <c r="B67">
         <v>222.65</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>339</v>
+      </c>
+      <c r="D67">
+        <v>79.63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>161.33000000000001</v>
       </c>
       <c r="B68">
         <v>204.21</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>259</v>
+      </c>
+      <c r="D68">
+        <v>79.36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>182.9</v>
       </c>
       <c r="B69">
         <v>186.2</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>339</v>
+      </c>
+      <c r="D69">
+        <v>78.94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>164.62</v>
       </c>
       <c r="B70">
         <v>174.57</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>340</v>
+      </c>
+      <c r="D70">
+        <v>78.459999999999994</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>145.44</v>
       </c>
       <c r="B71">
         <v>169.19</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>340</v>
+      </c>
+      <c r="D71">
+        <v>77.930000000000007</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>167.88</v>
       </c>
       <c r="B72">
         <v>165.17</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>333</v>
+      </c>
+      <c r="D72">
+        <v>77.47</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>183.41</v>
       </c>
       <c r="B73">
         <v>189.95</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>164</v>
+      </c>
+      <c r="D73">
+        <v>77.53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>193.13</v>
       </c>
       <c r="B74">
         <v>210.63</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>164</v>
+      </c>
+      <c r="D74">
+        <v>77.61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>183.42</v>
       </c>
       <c r="B75">
         <v>197.12</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>164</v>
+      </c>
+      <c r="D75">
+        <v>77.66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>183.43</v>
       </c>
       <c r="B76">
         <v>182.02</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>164</v>
+      </c>
+      <c r="D76">
+        <v>77.709999999999994</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>183.43</v>
       </c>
       <c r="B77">
         <v>179.4</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>164</v>
+      </c>
+      <c r="D77">
+        <v>77.77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>192.15</v>
       </c>
       <c r="B78">
         <v>222.63</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>163</v>
+      </c>
+      <c r="D78">
+        <v>77.849999999999994</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>193.15</v>
       </c>
       <c r="B79">
         <v>261.83</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>164</v>
+      </c>
+      <c r="D79">
+        <v>77.930000000000007</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>211.61</v>
       </c>
       <c r="B80">
         <v>296.85000000000002</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>163</v>
+      </c>
+      <c r="D80">
+        <v>78.06</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>211.63</v>
       </c>
       <c r="B81">
         <v>258.45999999999998</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>163</v>
+      </c>
+      <c r="D81">
+        <v>78.19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>211.65</v>
       </c>
       <c r="B82">
         <v>195.06</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>163</v>
+      </c>
+      <c r="D82">
+        <v>78.319999999999993</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>182.47</v>
       </c>
       <c r="B83">
         <v>168.98</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>163</v>
+      </c>
+      <c r="D83">
+        <v>78.38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>192.2</v>
       </c>
       <c r="B84">
         <v>160.80000000000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>163</v>
+      </c>
+      <c r="D84">
+        <v>78.459999999999994</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>163</v>
       </c>
       <c r="B85">
         <v>169.33</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>163</v>
+      </c>
+      <c r="D85">
+        <v>78.459999999999994</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>163</v>
       </c>
       <c r="B86">
         <v>175.12</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>163</v>
+      </c>
+      <c r="D86">
+        <v>78.459999999999994</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>163</v>
       </c>
       <c r="B87">
         <v>174.13</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>163</v>
+      </c>
+      <c r="D87">
+        <v>78.459999999999994</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>163</v>
       </c>
       <c r="B88">
         <v>167.29</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>163</v>
+      </c>
+      <c r="D88">
+        <v>78.459999999999994</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>163</v>
       </c>
       <c r="B89">
         <v>162.06</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>163</v>
+      </c>
+      <c r="D89">
+        <v>78.459999999999994</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>163</v>
       </c>
       <c r="B90">
         <v>158.75</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>163</v>
+      </c>
+      <c r="D90">
+        <v>78.459999999999994</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>143.53</v>
       </c>
       <c r="B91">
         <v>159.31</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>163</v>
+      </c>
+      <c r="D91">
+        <v>78.400000000000006</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>133.80000000000001</v>
       </c>
       <c r="B92">
         <v>152.69999999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>163</v>
+      </c>
+      <c r="D92">
+        <v>78.319999999999993</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>133.81</v>
       </c>
       <c r="B93">
         <v>144.18</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>163</v>
+      </c>
+      <c r="D93">
+        <v>78.239999999999995</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>124.09</v>
       </c>
       <c r="B94">
         <v>141.80000000000001</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>163</v>
+      </c>
+      <c r="D94">
+        <v>78.14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>133.82</v>
       </c>
       <c r="B95">
         <v>144.09</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>163</v>
+      </c>
+      <c r="D95">
+        <v>78.06</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>141.56</v>
       </c>
       <c r="B96">
         <v>146.68</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>161</v>
+      </c>
+      <c r="D96">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>129.83000000000001</v>
       </c>
       <c r="B97">
         <v>137.94</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>159</v>
+      </c>
+      <c r="D97">
+        <v>77.930000000000007</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>111.41</v>
       </c>
       <c r="B98">
         <v>131.46</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>160</v>
+      </c>
+      <c r="D98">
+        <v>77.790000000000006</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>133.86000000000001</v>
       </c>
       <c r="B99">
         <v>132.04</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>163</v>
+      </c>
+      <c r="D99">
+        <v>77.709999999999994</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>134.86000000000001</v>
       </c>
       <c r="B100">
         <v>130.34</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>164</v>
+      </c>
+      <c r="D100">
+        <v>77.63</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>124.16</v>
       </c>
       <c r="B101">
         <v>131.62</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>163</v>
+      </c>
+      <c r="D101">
+        <v>77.53</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>133.88</v>
       </c>
       <c r="B102">
         <v>136.47</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>163</v>
+      </c>
+      <c r="D102">
+        <v>77.45</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>124.18</v>
       </c>
       <c r="B103">
         <v>148.38999999999999</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>163</v>
+      </c>
+      <c r="D103">
+        <v>77.34</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>134.88999999999999</v>
       </c>
       <c r="B104">
         <v>152.91</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>164</v>
+      </c>
+      <c r="D104">
+        <v>77.260000000000005</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>127.51</v>
       </c>
       <c r="B105">
         <v>158.27000000000001</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>176</v>
+      </c>
+      <c r="D105">
+        <v>77.13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>141.61000000000001</v>
       </c>
       <c r="B106">
         <v>169.61</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>161</v>
+      </c>
+      <c r="D106">
+        <v>77.08</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>151.31</v>
       </c>
       <c r="B107">
         <v>162.5</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>161</v>
+      </c>
+      <c r="D107">
+        <v>77.05</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>144.61000000000001</v>
       </c>
       <c r="B108">
         <v>161.84</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>164</v>
+      </c>
+      <c r="D108">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>141.62</v>
       </c>
       <c r="B109">
         <v>166.79</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>161</v>
+      </c>
+      <c r="D109">
+        <v>76.94</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>140.34</v>
       </c>
       <c r="B110">
         <v>155.51</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>334</v>
+      </c>
+      <c r="D110">
+        <v>76.42</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>134.99</v>
       </c>
       <c r="B111">
         <v>145.66999999999999</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>338</v>
+      </c>
+      <c r="D111">
+        <v>75.86</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>126.69</v>
       </c>
       <c r="B112">
         <v>139.87</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>339</v>
+      </c>
+      <c r="D112">
+        <v>75.28</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>117.45</v>
       </c>
       <c r="B113">
         <v>136.91</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>339</v>
+      </c>
+      <c r="D113">
+        <v>74.680000000000007</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>128.47</v>
       </c>
       <c r="B114">
         <v>145.81</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>340</v>
+      </c>
+      <c r="D114">
+        <v>74.099999999999994</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>148.03</v>
       </c>
       <c r="B115">
         <v>185.19</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>340</v>
+      </c>
+      <c r="D115">
+        <v>73.58</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>148.34</v>
       </c>
       <c r="B116">
         <v>189.95</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>340</v>
+      </c>
+      <c r="D116">
+        <v>73.05</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>168.77</v>
       </c>
       <c r="B117">
         <v>186.24</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>341</v>
+      </c>
+      <c r="D117">
+        <v>72.58</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>160.47</v>
       </c>
       <c r="B118">
         <v>178.77</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>342</v>
+      </c>
+      <c r="D118">
+        <v>72.09</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>171.28</v>
       </c>
       <c r="B119">
         <v>171.87</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>343</v>
+      </c>
+      <c r="D119">
+        <v>71.62</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>190.57</v>
       </c>
       <c r="B120">
         <v>206.83</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>343</v>
+      </c>
+      <c r="D120">
+        <v>71.2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>239.32</v>
       </c>
       <c r="B121">
         <v>265.02999999999997</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>344</v>
+      </c>
+      <c r="D121">
+        <v>70.92</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>238.41</v>
       </c>
       <c r="B122">
         <v>326.35000000000002</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>343</v>
+      </c>
+      <c r="D122">
+        <v>70.63</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>257.5</v>
       </c>
       <c r="B123">
         <v>359.72</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <v>343</v>
+      </c>
+      <c r="D123">
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>286.02999999999997</v>
       </c>
       <c r="B124">
         <v>389.59</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <v>343</v>
+      </c>
+      <c r="D124">
+        <v>70.239999999999995</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>305.04000000000002</v>
       </c>
       <c r="B125">
         <v>348.88</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <v>343</v>
+      </c>
+      <c r="D125">
+        <v>70.14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>306.05</v>
       </c>
       <c r="B126">
         <v>282.33</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <v>344</v>
+      </c>
+      <c r="D126">
+        <v>70.03</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>289.89</v>
       </c>
       <c r="B127">
         <v>247.23</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <v>176</v>
+      </c>
+      <c r="D127">
+        <v>70.349999999999994</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>248.49</v>
       </c>
       <c r="B128">
         <v>226.74</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>163</v>
+      </c>
+      <c r="D128">
+        <v>70.58</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>228.51</v>
       </c>
       <c r="B129">
         <v>214.09</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>295</v>
+      </c>
+      <c r="D129">
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>221.6</v>
       </c>
       <c r="B130">
         <v>207.87</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <v>345</v>
+      </c>
+      <c r="D130">
+        <v>70.06</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>240.69</v>
       </c>
       <c r="B131">
         <v>199.32</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <v>345</v>
+      </c>
+      <c r="D131">
+        <v>69.78</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>335.52</v>
       </c>
       <c r="B132">
         <v>183.01</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <v>345</v>
+      </c>
+      <c r="D132">
+        <v>69.75</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>364.95</v>
       </c>
       <c r="B133">
         <v>175.08</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>346</v>
+      </c>
+      <c r="D133">
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>203.9</v>
       </c>
       <c r="B134">
         <v>164.8</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <v>346</v>
+      </c>
+      <c r="D134">
+        <v>69.41</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>186.16</v>
       </c>
       <c r="B135">
         <v>161.81</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <v>347</v>
+      </c>
+      <c r="D135">
+        <v>68.97</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>176.94</v>
       </c>
       <c r="B136">
         <v>166.1</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <v>347</v>
+      </c>
+      <c r="D136">
+        <v>68.510000000000005</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>159.34</v>
       </c>
       <c r="B137">
         <v>166.51</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C137">
+        <v>348</v>
+      </c>
+      <c r="D137">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>131.41</v>
       </c>
       <c r="B138">
         <v>162.44999999999999</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C138">
+        <v>348</v>
+      </c>
+      <c r="D138">
+        <v>67.400000000000006</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>140.19999999999999</v>
       </c>
       <c r="B139">
         <v>175.65</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C139">
+        <v>347</v>
+      </c>
+      <c r="D139">
+        <v>66.84</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>142.57</v>
       </c>
       <c r="B140">
         <v>203.95</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <v>349</v>
+      </c>
+      <c r="D140">
+        <v>66.28</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>133.58000000000001</v>
       </c>
       <c r="B141">
         <v>218.18</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C141">
+        <v>349</v>
+      </c>
+      <c r="D141">
+        <v>65.69</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>144.32</v>
       </c>
       <c r="B142">
         <v>224.09</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <v>350</v>
+      </c>
+      <c r="D142">
+        <v>65.13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>135.36000000000001</v>
       </c>
       <c r="B143">
         <v>198.86</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C143">
+        <v>350</v>
+      </c>
+      <c r="D143">
+        <v>64.540000000000006</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>117.15</v>
       </c>
       <c r="B144">
         <v>171.59</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <v>350</v>
+      </c>
+      <c r="D144">
+        <v>63.91</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>118.62</v>
       </c>
       <c r="B145">
         <v>159.56</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <v>351</v>
+      </c>
+      <c r="D145">
+        <v>63.27</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>119.08</v>
       </c>
       <c r="B146">
         <v>149.44999999999999</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <v>351</v>
+      </c>
+      <c r="D146">
+        <v>62.64</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>119.55</v>
       </c>
       <c r="B147">
         <v>143.9</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <v>351</v>
+      </c>
+      <c r="D147">
+        <v>62.01</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>101.56</v>
       </c>
       <c r="B148">
         <v>140.41</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C148">
+        <v>351</v>
+      </c>
+      <c r="D148">
+        <v>61.32</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>103.1</v>
       </c>
       <c r="B149">
         <v>151.65</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C149">
+        <v>352</v>
+      </c>
+      <c r="D149">
+        <v>60.65</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>112.83</v>
       </c>
       <c r="B150">
         <v>161.06</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C150">
+        <v>352</v>
+      </c>
+      <c r="D150">
+        <v>59.99</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>105.16</v>
       </c>
       <c r="B151">
         <v>142.41</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C151">
+        <v>353</v>
+      </c>
+      <c r="D151">
+        <v>59.32</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>94.61</v>
       </c>
       <c r="B152">
         <v>126.48</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C152">
+        <v>287</v>
+      </c>
+      <c r="D152">
+        <v>58.79</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>86.52</v>
       </c>
       <c r="B153">
         <v>114.88</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C153">
+        <v>306</v>
+      </c>
+      <c r="D153">
+        <v>58.19</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>86.06</v>
       </c>
       <c r="B154">
         <v>108.78</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C154">
+        <v>296</v>
+      </c>
+      <c r="D154">
+        <v>57.62</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>109.76</v>
       </c>
       <c r="B155">
         <v>108.64</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C155">
+        <v>292</v>
+      </c>
+      <c r="D155">
+        <v>57.12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>113.89</v>
       </c>
       <c r="B156">
         <v>120.88</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C156">
+        <v>214</v>
+      </c>
+      <c r="D156">
+        <v>56.85</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>125.46</v>
       </c>
       <c r="B157">
         <v>141.53</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C157">
+        <v>280</v>
+      </c>
+      <c r="D157">
+        <v>56.43</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>173.04</v>
       </c>
       <c r="B158">
         <v>152.02000000000001</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C158">
+        <v>282</v>
+      </c>
+      <c r="D158">
+        <v>56.13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>275</v>
       </c>
       <c r="B159">
         <v>168.89</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C159">
+        <v>275</v>
+      </c>
+      <c r="D159">
+        <v>56.13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>294.22000000000003</v>
       </c>
       <c r="B160">
         <v>253.75</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C160">
+        <v>158</v>
+      </c>
+      <c r="D160">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>336.88</v>
       </c>
       <c r="B161">
         <v>402.89</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C161">
+        <v>155</v>
+      </c>
+      <c r="D161">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>428.36</v>
       </c>
       <c r="B162">
         <v>501.38</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C162">
+        <v>155</v>
+      </c>
+      <c r="D162">
+        <v>57.74</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>428.02</v>
       </c>
       <c r="B163">
         <v>554.23</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C163">
+        <v>154</v>
+      </c>
+      <c r="D163">
+        <v>58.49</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>404.26</v>
       </c>
       <c r="B164">
         <v>589.46</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C164">
+        <v>267</v>
+      </c>
+      <c r="D164">
+        <v>58.87</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>333.6</v>
       </c>
       <c r="B165">
         <v>595.29999999999995</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C165">
+        <v>242</v>
+      </c>
+      <c r="D165">
+        <v>59.12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>314.83</v>
       </c>
       <c r="B166">
         <v>552.73</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C166">
+        <v>269</v>
+      </c>
+      <c r="D166">
+        <v>59.24</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>361.71</v>
       </c>
       <c r="B167">
         <v>515.37</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C167">
+        <v>270</v>
+      </c>
+      <c r="D167">
+        <v>59.49</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>303.88</v>
       </c>
       <c r="B168">
         <v>475.57</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C168">
+        <v>258</v>
+      </c>
+      <c r="D168">
+        <v>59.62</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>245.82</v>
       </c>
       <c r="B169">
         <v>398.8</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C169">
+        <v>154</v>
+      </c>
+      <c r="D169">
+        <v>59.87</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>245.89</v>
       </c>
       <c r="B170">
         <v>333.66</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C170">
+        <v>154</v>
+      </c>
+      <c r="D170">
+        <v>60.12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>239.62</v>
       </c>
       <c r="B171">
         <v>291.92</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C171">
+        <v>258</v>
+      </c>
+      <c r="D171">
+        <v>60.07</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>330.36</v>
       </c>
       <c r="B172">
         <v>267.64</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C172">
+        <v>266</v>
+      </c>
+      <c r="D172">
+        <v>60.24</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>554.34</v>
       </c>
       <c r="B173">
         <v>312.43</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C173">
+        <v>232</v>
+      </c>
+      <c r="D173">
+        <v>61.12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>737.37</v>
       </c>
       <c r="B174">
         <v>570.80999999999995</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C174">
+        <v>229</v>
+      </c>
+      <c r="D174">
+        <v>62.51</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>858.71</v>
       </c>
       <c r="B175">
         <v>680.79</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C175">
+        <v>255</v>
+      </c>
+      <c r="D175">
+        <v>64.16</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>972.26</v>
       </c>
       <c r="B176">
         <v>774.74</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C176">
+        <v>178</v>
+      </c>
+      <c r="D176">
+        <v>66.33</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1028.05</v>
       </c>
       <c r="B177">
         <v>858.94</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C177">
+        <v>200</v>
+      </c>
+      <c r="D177">
+        <v>68.59</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1051.45</v>
       </c>
       <c r="B178">
         <v>903.16</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C178">
+        <v>227</v>
+      </c>
+      <c r="D178">
+        <v>70.84</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1032.83</v>
       </c>
       <c r="B179">
         <v>865.03</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C179">
+        <v>260</v>
+      </c>
+      <c r="D179">
+        <v>72.95</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>749.04</v>
       </c>
       <c r="B180">
         <v>767.55</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C180">
+        <v>231</v>
+      </c>
+      <c r="D180">
+        <v>74.36</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>596.98</v>
       </c>
       <c r="B181">
         <v>647.61</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C181">
+        <v>260</v>
+      </c>
+      <c r="D181">
+        <v>75.28</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>519.99</v>
       </c>
       <c r="B182">
         <v>549.75</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C182">
+        <v>327</v>
+      </c>
+      <c r="D182">
+        <v>75.81</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>474.95</v>
       </c>
       <c r="B183">
         <v>468.71</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C183">
+        <v>330</v>
+      </c>
+      <c r="D183">
+        <v>76.209999999999994</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>432.54</v>
       </c>
       <c r="B184">
         <v>423.06</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C184">
+        <v>239</v>
+      </c>
+      <c r="D184">
+        <v>76.73</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>388.89</v>
       </c>
       <c r="B185">
         <v>396.13</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C185">
+        <v>292</v>
+      </c>
+      <c r="D185">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>400.96</v>
       </c>
       <c r="B186">
         <v>369.14</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C186">
+        <v>304</v>
+      </c>
+      <c r="D186">
+        <v>77.260000000000005</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>352.51</v>
       </c>
       <c r="B187">
         <v>337.7</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C187">
+        <v>304</v>
+      </c>
+      <c r="D187">
+        <v>77.400000000000006</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>303</v>
       </c>
       <c r="B188">
         <v>303.52</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C188">
+        <v>303</v>
+      </c>
+      <c r="D188">
+        <v>77.400000000000006</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>266.49</v>
       </c>
       <c r="B189">
         <v>285.39999999999998</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C189">
+        <v>315</v>
+      </c>
+      <c r="D189">
+        <v>77.260000000000005</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>238.42</v>
       </c>
       <c r="B190">
         <v>269.93</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C190">
+        <v>316</v>
+      </c>
+      <c r="D190">
+        <v>77.05</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>247.16</v>
       </c>
       <c r="B191">
         <v>303.14</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C191">
+        <v>315</v>
+      </c>
+      <c r="D191">
+        <v>76.87</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>266.57</v>
       </c>
       <c r="B192">
         <v>402.04</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C192">
+        <v>315</v>
+      </c>
+      <c r="D192">
+        <v>76.73</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>372.43</v>
       </c>
       <c r="B193">
         <v>481.37</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C193">
+        <v>324</v>
+      </c>
+      <c r="D193">
+        <v>76.87</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>432.93</v>
       </c>
       <c r="B194">
         <v>526.16</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C194">
+        <v>336</v>
+      </c>
+      <c r="D194">
+        <v>77.13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>433</v>
       </c>
       <c r="B195">
         <v>512.24</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C195">
+        <v>336</v>
+      </c>
+      <c r="D195">
+        <v>77.400000000000006</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>433.08</v>
       </c>
       <c r="B196">
         <v>449.14</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C196">
+        <v>336</v>
+      </c>
+      <c r="D196">
+        <v>77.66</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>365.14</v>
       </c>
       <c r="B197">
         <v>422.53</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C197">
+        <v>336</v>
+      </c>
+      <c r="D197">
+        <v>77.739999999999995</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>355.43</v>
       </c>
       <c r="B198">
         <v>453.73</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C198">
+        <v>336</v>
+      </c>
+      <c r="D198">
+        <v>77.790000000000006</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>384.59</v>
       </c>
       <c r="B199">
         <v>450.78</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C199">
+        <v>336</v>
+      </c>
+      <c r="D199">
+        <v>77.930000000000007</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>384.61</v>
       </c>
       <c r="B200">
         <v>420.02</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C200">
+        <v>336</v>
+      </c>
+      <c r="D200">
+        <v>78.06</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>336</v>
       </c>
       <c r="B201">
         <v>381.44</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C201">
+        <v>336</v>
+      </c>
+      <c r="D201">
+        <v>78.06</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>336</v>
       </c>
       <c r="B202">
         <v>363.93</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C202">
+        <v>336</v>
+      </c>
+      <c r="D202">
+        <v>78.06</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>336</v>
       </c>
       <c r="B203">
         <v>363.53</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C203">
+        <v>336</v>
+      </c>
+      <c r="D203">
+        <v>78.06</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>323.63</v>
       </c>
       <c r="B204">
         <v>333.05</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C204">
+        <v>275</v>
+      </c>
+      <c r="D204">
+        <v>78.19</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>287.37</v>
       </c>
       <c r="B205">
         <v>304.01</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C205">
+        <v>336</v>
+      </c>
+      <c r="D205">
+        <v>78.06</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>267.95</v>
       </c>
       <c r="B206">
         <v>279.89</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C206">
+        <v>336</v>
+      </c>
+      <c r="D206">
+        <v>77.87</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>258.27</v>
       </c>
       <c r="B207">
         <v>261.27999999999997</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C207">
+        <v>336</v>
+      </c>
+      <c r="D207">
+        <v>77.66</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>238.92</v>
       </c>
       <c r="B208">
         <v>248.39</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C208">
+        <v>336</v>
+      </c>
+      <c r="D208">
+        <v>77.400000000000006</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>239</v>
       </c>
       <c r="B209">
         <v>238.33</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C209">
+        <v>336</v>
+      </c>
+      <c r="D209">
+        <v>77.13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>239.07</v>
       </c>
       <c r="B210">
         <v>234.78</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C210">
+        <v>336</v>
+      </c>
+      <c r="D210">
+        <v>76.87</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>230.47</v>
       </c>
       <c r="B211">
         <v>230.34</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C211">
+        <v>337</v>
+      </c>
+      <c r="D211">
+        <v>76.569999999999993</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>220.9</v>
       </c>
       <c r="B212">
         <v>224.31</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C212">
+        <v>337</v>
+      </c>
+      <c r="D212">
+        <v>76.260000000000005</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211.35</v>
       </c>
       <c r="B213">
         <v>222.59</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C213">
+        <v>337</v>
+      </c>
+      <c r="D213">
+        <v>75.91</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>201.83</v>
       </c>
       <c r="B214">
         <v>223.6</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C214">
+        <v>337</v>
+      </c>
+      <c r="D214">
+        <v>75.55</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>200.55</v>
       </c>
       <c r="B215">
         <v>225.07</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C215">
+        <v>297</v>
+      </c>
+      <c r="D215">
+        <v>75.28</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>202.62</v>
       </c>
       <c r="B216">
         <v>223.47</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C216">
+        <v>299</v>
+      </c>
+      <c r="D216">
+        <v>75.02</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>227.84</v>
       </c>
       <c r="B217">
         <v>228.72</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C217">
+        <v>276</v>
+      </c>
+      <c r="D217">
+        <v>74.89</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>235.12</v>
       </c>
       <c r="B218">
         <v>230.77</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C218">
+        <v>264</v>
+      </c>
+      <c r="D218">
+        <v>74.81</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>229.78</v>
       </c>
       <c r="B219">
         <v>226.59</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C219">
+        <v>172</v>
+      </c>
+      <c r="D219">
+        <v>74.97</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>238.1</v>
       </c>
       <c r="B220">
         <v>215.66</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C220">
+        <v>267</v>
+      </c>
+      <c r="D220">
+        <v>74.89</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>223.86</v>
       </c>
       <c r="B221">
         <v>212.32</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C221">
+        <v>272</v>
+      </c>
+      <c r="D221">
+        <v>74.760000000000005</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>204.64</v>
       </c>
       <c r="B222">
         <v>207.42</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C222">
+        <v>272</v>
+      </c>
+      <c r="D222">
+        <v>74.569999999999993</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>181.83</v>
       </c>
       <c r="B223">
         <v>206.23</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C223">
+        <v>278</v>
+      </c>
+      <c r="D223">
+        <v>74.31</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>173.31</v>
       </c>
       <c r="B224">
         <v>201.67</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C224">
+        <v>279</v>
+      </c>
+      <c r="D224">
+        <v>74.02</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>178</v>
       </c>
       <c r="B225">
         <v>200.49</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C225">
+        <v>274</v>
+      </c>
+      <c r="D225">
+        <v>73.760000000000005</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>162.81</v>
       </c>
       <c r="B226">
         <v>194.94</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C226">
+        <v>182</v>
+      </c>
+      <c r="D226">
+        <v>73.709999999999994</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>172.09</v>
       </c>
       <c r="B227">
         <v>188.78</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C227">
+        <v>268</v>
+      </c>
+      <c r="D227">
+        <v>73.45</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>175.17</v>
       </c>
       <c r="B228">
         <v>187.81</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C228">
+        <v>271</v>
+      </c>
+      <c r="D228">
+        <v>73.180000000000007</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>178.25</v>
       </c>
       <c r="B229">
         <v>183.38</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C229">
+        <v>274</v>
+      </c>
+      <c r="D229">
+        <v>72.92</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>178.32</v>
       </c>
       <c r="B230">
         <v>180.2</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C230">
+        <v>274</v>
+      </c>
+      <c r="D230">
+        <v>72.66</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>178.4</v>
       </c>
       <c r="B231">
         <v>176.68</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C231">
+        <v>274</v>
+      </c>
+      <c r="D231">
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>164.2</v>
       </c>
       <c r="B232">
         <v>175.68</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C232">
+        <v>317</v>
+      </c>
+      <c r="D232">
+        <v>71.98</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>165.46</v>
       </c>
       <c r="B233">
         <v>174.25</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C233">
+        <v>175</v>
+      </c>
+      <c r="D233">
+        <v>71.959999999999994</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>146</v>
       </c>
       <c r="B234">
         <v>169.44</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C234">
+        <v>270</v>
+      </c>
+      <c r="D234">
+        <v>71.62</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>145.09</v>
       </c>
       <c r="B235">
         <v>169.11</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C235">
+        <v>288</v>
+      </c>
+      <c r="D235">
+        <v>71.23</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>152.29</v>
       </c>
       <c r="B236">
         <v>170.07</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C236">
+        <v>276</v>
+      </c>
+      <c r="D236">
+        <v>70.89</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>156.41999999999999</v>
       </c>
       <c r="B237">
         <v>165.01</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C237">
+        <v>318</v>
+      </c>
+      <c r="D237">
+        <v>70.45</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>145.61000000000001</v>
       </c>
       <c r="B238">
         <v>161.94</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C238">
+        <v>288</v>
+      </c>
+      <c r="D238">
+        <v>70.06</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>153.22</v>
       </c>
       <c r="B239">
         <v>162.21</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C239">
+        <v>267</v>
+      </c>
+      <c r="D239">
+        <v>69.75</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>139.57</v>
       </c>
       <c r="B240">
         <v>160.16</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C240">
+        <v>168</v>
+      </c>
+      <c r="D240">
+        <v>69.67</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>128.96</v>
       </c>
       <c r="B241">
         <v>158.1</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C241">
+        <v>271</v>
+      </c>
+      <c r="D241">
+        <v>69.28</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>134.13</v>
       </c>
       <c r="B242">
         <v>158.47999999999999</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C242">
+        <v>276</v>
+      </c>
+      <c r="D242">
+        <v>68.900000000000006</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>141.30000000000001</v>
       </c>
       <c r="B243">
         <v>159.65</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C243">
+        <v>283</v>
+      </c>
+      <c r="D243">
+        <v>68.510000000000005</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>148.47</v>
       </c>
       <c r="B244">
         <v>161.16</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C244">
+        <v>290</v>
+      </c>
+      <c r="D244">
+        <v>68.12</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>149.63999999999999</v>
       </c>
       <c r="B245">
         <v>163.1</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C245">
+        <v>291</v>
+      </c>
+      <c r="D245">
+        <v>67.739999999999995</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>137.82</v>
       </c>
       <c r="B246">
         <v>160.61000000000001</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C246">
+        <v>279</v>
+      </c>
+      <c r="D246">
+        <v>67.349999999999994</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>133.38</v>
       </c>
       <c r="B247">
         <v>155.26</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C247">
+        <v>171</v>
+      </c>
+      <c r="D247">
+        <v>67.25</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>135.63999999999999</v>
       </c>
       <c r="B248">
         <v>151.19999999999999</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C248">
+        <v>286</v>
+      </c>
+      <c r="D248">
+        <v>66.84</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>138.21</v>
       </c>
       <c r="B249">
         <v>144.46</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C249">
+        <v>279</v>
+      </c>
+      <c r="D249">
+        <v>66.459999999999994</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>134.55000000000001</v>
       </c>
       <c r="B250">
         <v>142.83000000000001</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C250">
+        <v>322</v>
+      </c>
+      <c r="D250">
+        <v>65.94</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>135.85</v>
       </c>
       <c r="B251">
         <v>141.57</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C251">
+        <v>323</v>
+      </c>
+      <c r="D251">
+        <v>65.430000000000007</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>136.15</v>
       </c>
       <c r="B252">
         <v>144.19</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C252">
+        <v>323</v>
+      </c>
+      <c r="D252">
+        <v>64.92</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>137.46</v>
       </c>
       <c r="B253">
         <v>146.68</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C253">
+        <v>324</v>
+      </c>
+      <c r="D253">
+        <v>64.41</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>137.76</v>
       </c>
       <c r="B254">
         <v>146.41999999999999</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C254">
+        <v>324</v>
+      </c>
+      <c r="D254">
+        <v>63.91</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>138.06</v>
       </c>
       <c r="B255">
         <v>143.55000000000001</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C255">
+        <v>324</v>
+      </c>
+      <c r="D255">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>139.36000000000001</v>
       </c>
       <c r="B256">
         <v>139.58000000000001</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C256">
+        <v>325</v>
+      </c>
+      <c r="D256">
+        <v>62.89</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>139.65</v>
       </c>
       <c r="B257">
         <v>134</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C257">
+        <v>325</v>
+      </c>
+      <c r="D257">
+        <v>62.38</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>139.94999999999999</v>
       </c>
       <c r="B258">
         <v>131.02000000000001</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C258">
+        <v>325</v>
+      </c>
+      <c r="D258">
+        <v>61.88</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>141.25</v>
       </c>
       <c r="B259">
         <v>127.24</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C259">
+        <v>326</v>
+      </c>
+      <c r="D259">
+        <v>61.38</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>114.91</v>
       </c>
       <c r="B260">
         <v>123.19</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C260">
+        <v>327</v>
+      </c>
+      <c r="D260">
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>106.1</v>
       </c>
       <c r="B261">
         <v>120.94</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C261">
+        <v>327</v>
+      </c>
+      <c r="D261">
+        <v>60.19</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>116.7</v>
       </c>
       <c r="B262">
         <v>129.58000000000001</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C262">
+        <v>328</v>
+      </c>
+      <c r="D262">
+        <v>59.62</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>126.26</v>
       </c>
       <c r="B263">
         <v>128.57</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C263">
+        <v>328</v>
+      </c>
+      <c r="D263">
+        <v>59.07</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>118.47</v>
       </c>
       <c r="B264">
         <v>123.02</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C264">
+        <v>329</v>
+      </c>
+      <c r="D264">
+        <v>58.49</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>118.86</v>
       </c>
       <c r="B265">
         <v>123.91</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C265">
+        <v>329</v>
+      </c>
+      <c r="D265">
+        <v>57.92</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>128.35</v>
       </c>
       <c r="B266">
         <v>127.27</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C266">
+        <v>329</v>
+      </c>
+      <c r="D266">
+        <v>57.37</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>147.9</v>
       </c>
       <c r="B267">
         <v>136.03</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C267">
+        <v>330</v>
+      </c>
+      <c r="D267">
+        <v>56.87</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>148.19999999999999</v>
       </c>
       <c r="B268">
         <v>150.51</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C268">
+        <v>330</v>
+      </c>
+      <c r="D268">
+        <v>56.38</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>148.49</v>
       </c>
       <c r="B269">
         <v>151.66999999999999</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C269">
+        <v>330</v>
+      </c>
+      <c r="D269">
+        <v>55.88</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>140.72999999999999</v>
       </c>
       <c r="B270">
         <v>147.78</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C270">
+        <v>331</v>
+      </c>
+      <c r="D270">
+        <v>55.36</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>132.01</v>
       </c>
       <c r="B271">
         <v>142.30000000000001</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C271">
+        <v>331</v>
+      </c>
+      <c r="D271">
+        <v>54.82</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>142.38</v>
       </c>
       <c r="B272">
         <v>149.69</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C272">
+        <v>332</v>
+      </c>
+      <c r="D272">
+        <v>54.3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>160.72</v>
       </c>
       <c r="B273">
         <v>205.46</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C273">
+        <v>332</v>
+      </c>
+      <c r="D273">
+        <v>53.83</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>170.97</v>
       </c>
       <c r="B274">
         <v>224.53</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C274">
+        <v>333</v>
+      </c>
+      <c r="D274">
+        <v>53.39</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>173.1</v>
       </c>
       <c r="B275">
         <v>186.16</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C275">
+        <v>272</v>
+      </c>
+      <c r="D275">
+        <v>53.12</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>146.22</v>
       </c>
       <c r="B276">
         <v>163.34</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C276">
+        <v>263</v>
+      </c>
+      <c r="D276">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>134.38</v>
       </c>
       <c r="B277">
         <v>143.61000000000001</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C277">
+        <v>260</v>
+      </c>
+      <c r="D277">
+        <v>52.46</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>122.6</v>
       </c>
       <c r="B278">
         <v>133.11000000000001</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C278">
+        <v>266</v>
+      </c>
+      <c r="D278">
+        <v>52.07</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>131.72999999999999</v>
       </c>
       <c r="B279">
         <v>126.33</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C279">
+        <v>266</v>
+      </c>
+      <c r="D279">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>128.9</v>
       </c>
       <c r="B280">
         <v>121.33</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C280">
+        <v>263</v>
+      </c>
+      <c r="D280">
+        <v>51.33</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>113.85</v>
       </c>
       <c r="B281">
         <v>116.31</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C281">
+        <v>337</v>
+      </c>
+      <c r="D281">
+        <v>50.73</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>115.29</v>
       </c>
       <c r="B282">
         <v>114.31</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C282">
+        <v>338</v>
+      </c>
+      <c r="D282">
+        <v>50.12</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>107.82</v>
       </c>
       <c r="B283">
         <v>113.11</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C283">
+        <v>259</v>
+      </c>
+      <c r="D283">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>106.77</v>
       </c>
       <c r="B284">
         <v>110.16</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C284">
+        <v>240</v>
+      </c>
+      <c r="D284">
+        <v>49.34</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>108.66</v>
       </c>
       <c r="B285">
         <v>102.65</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C285">
+        <v>224</v>
+      </c>
+      <c r="D285">
+        <v>49.03</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>95.07</v>
       </c>
       <c r="B286">
         <v>97.93</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C286">
+        <v>228</v>
+      </c>
+      <c r="D286">
+        <v>48.66</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>95.92</v>
       </c>
       <c r="B287">
         <v>99.48</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C287">
+        <v>211</v>
+      </c>
+      <c r="D287">
+        <v>48.35</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>101.56</v>
       </c>
       <c r="B288">
         <v>101.06</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C288">
+        <v>190</v>
+      </c>
+      <c r="D288">
+        <v>48.11</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>128.13</v>
       </c>
       <c r="B289">
         <v>111.59</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C289">
+        <v>190</v>
+      </c>
+      <c r="D289">
+        <v>47.94</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>146.68</v>
       </c>
       <c r="B290">
         <v>153.62</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C290">
+        <v>235</v>
+      </c>
+      <c r="D290">
+        <v>47.7</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>190.87</v>
       </c>
       <c r="B291">
         <v>195.96</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C291">
+        <v>235</v>
+      </c>
+      <c r="D291">
+        <v>47.58</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>193.88</v>
       </c>
       <c r="B292">
         <v>192.23</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C292">
+        <v>238</v>
+      </c>
+      <c r="D292">
+        <v>47.46</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>158.71</v>
       </c>
       <c r="B293">
         <v>147.75</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C293">
+        <v>335</v>
+      </c>
+      <c r="D293">
+        <v>46.98</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>132.82</v>
       </c>
       <c r="B294">
         <v>143.36000000000001</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C294">
+        <v>344</v>
+      </c>
+      <c r="D294">
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>126.45</v>
       </c>
       <c r="B295">
         <v>132.66</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C295">
+        <v>346</v>
+      </c>
+      <c r="D295">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>119.13</v>
       </c>
       <c r="B296">
         <v>126.88</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C296">
+        <v>347</v>
+      </c>
+      <c r="D296">
+        <v>45.18</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>128.34</v>
       </c>
       <c r="B297">
         <v>128.61000000000001</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C297">
+        <v>347</v>
+      </c>
+      <c r="D297">
+        <v>44.58</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>147.22</v>
       </c>
       <c r="B298">
         <v>132.01</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C298">
+        <v>348</v>
+      </c>
+      <c r="D298">
+        <v>44.03</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>156.29</v>
       </c>
       <c r="B299">
         <v>159.97</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C299">
+        <v>348</v>
+      </c>
+      <c r="D299">
+        <v>43.51</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>192.4</v>
       </c>
       <c r="B300">
         <v>214.49</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C300">
+        <v>349</v>
+      </c>
+      <c r="D300">
+        <v>43.08</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>244.72</v>
       </c>
       <c r="B301">
         <v>289</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C301">
+        <v>349</v>
+      </c>
+      <c r="D301">
+        <v>42.8</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>263.18</v>
       </c>
       <c r="B302">
         <v>275.88</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C302">
+        <v>350</v>
+      </c>
+      <c r="D302">
+        <v>42.56</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>263.25</v>
       </c>
       <c r="B303">
         <v>239.55</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C303">
+        <v>350</v>
+      </c>
+      <c r="D303">
+        <v>42.32</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>220</v>
       </c>
       <c r="B304">
         <v>210.2</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C304">
+        <v>350</v>
+      </c>
+      <c r="D304">
+        <v>41.97</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>194.8</v>
       </c>
       <c r="B305">
         <v>205.92</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C305">
+        <v>316</v>
+      </c>
+      <c r="D305">
+        <v>41.64</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>185.87</v>
       </c>
       <c r="B306">
         <v>181.24</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C306">
+        <v>281</v>
+      </c>
+      <c r="D306">
+        <v>41.38</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>163.68</v>
       </c>
       <c r="B307">
         <v>154.47999999999999</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C307">
+        <v>276</v>
+      </c>
+      <c r="D307">
+        <v>41.07</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>149.56</v>
       </c>
       <c r="B308">
         <v>160.25</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C308">
+        <v>210</v>
+      </c>
+      <c r="D308">
+        <v>40.909999999999997</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>156.85</v>
       </c>
       <c r="B309">
         <v>170.65</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C309">
+        <v>200</v>
+      </c>
+      <c r="D309">
+        <v>40.79</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>145.87</v>
       </c>
       <c r="B310">
         <v>153.24</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C310">
+        <v>189</v>
+      </c>
+      <c r="D310">
+        <v>40.67</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>139.79</v>
       </c>
       <c r="B311">
         <v>152.91</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C311">
+        <v>226</v>
+      </c>
+      <c r="D311">
+        <v>40.44</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>146.54</v>
       </c>
       <c r="B312">
         <v>148.28</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C312">
+        <v>181</v>
+      </c>
+      <c r="D312">
+        <v>40.340000000000003</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>149.28</v>
       </c>
       <c r="B313">
         <v>138.25</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C313">
+        <v>244</v>
+      </c>
+      <c r="D313">
+        <v>40.08</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>146.97</v>
       </c>
       <c r="B314">
         <v>130.63999999999999</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C314">
+        <v>276</v>
+      </c>
+      <c r="D314">
+        <v>39.729999999999997</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>144.12</v>
       </c>
       <c r="B315">
         <v>124.24</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C315">
+        <v>273</v>
+      </c>
+      <c r="D315">
+        <v>39.380000000000003</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>147.28</v>
       </c>
       <c r="B316">
         <v>129.44</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C316">
+        <v>276</v>
+      </c>
+      <c r="D316">
+        <v>39.03</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>166</v>
       </c>
       <c r="B317">
         <v>155.94</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C317">
+        <v>286</v>
+      </c>
+      <c r="D317">
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>171.36</v>
       </c>
       <c r="B318">
         <v>199.89</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C318">
+        <v>257</v>
+      </c>
+      <c r="D318">
+        <v>38.47</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>174.88</v>
       </c>
       <c r="B319">
         <v>212.49</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C319">
+        <v>269</v>
+      </c>
+      <c r="D319">
+        <v>38.21</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>182.51</v>
       </c>
       <c r="B320">
         <v>186.67</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C320">
+        <v>268</v>
+      </c>
+      <c r="D320">
+        <v>37.979999999999997</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>167</v>
       </c>
       <c r="B321">
         <v>166.22</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C321">
+        <v>167</v>
+      </c>
+      <c r="D321">
+        <v>37.979999999999997</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>140.88999999999999</v>
       </c>
       <c r="B322">
         <v>166.78</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C322">
+        <v>269</v>
+      </c>
+      <c r="D322">
+        <v>37.630000000000003</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>118.33</v>
       </c>
       <c r="B323">
         <v>156.57</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C323">
+        <v>161</v>
+      </c>
+      <c r="D323">
+        <v>37.51</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>117.35</v>
       </c>
       <c r="B324">
         <v>138.84</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C324">
+        <v>160</v>
+      </c>
+      <c r="D324">
+        <v>37.39</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>99.07</v>
       </c>
       <c r="B325">
         <v>124.59</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C325">
+        <v>261</v>
+      </c>
+      <c r="D325">
+        <v>36.950000000000003</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>96.3</v>
       </c>
       <c r="B326">
         <v>118.67</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C326">
+        <v>275</v>
+      </c>
+      <c r="D326">
+        <v>36.46</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>108.09</v>
       </c>
       <c r="B327">
         <v>113.8</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C327">
+        <v>278</v>
+      </c>
+      <c r="D327">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>114.36</v>
       </c>
       <c r="B328">
         <v>110.96</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C328">
+        <v>284</v>
+      </c>
+      <c r="D328">
+        <v>35.54</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>105.62</v>
       </c>
       <c r="B329">
         <v>109.33</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C329">
+        <v>275</v>
+      </c>
+      <c r="D329">
+        <v>35.07</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>103.89</v>
       </c>
       <c r="B330">
         <v>106.64</v>
       </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C330">
+        <v>273</v>
+      </c>
+      <c r="D330">
+        <v>34.61</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>87.54</v>
       </c>
       <c r="B331">
         <v>100.74</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C331">
+        <v>172</v>
+      </c>
+      <c r="D331">
+        <v>34.380000000000003</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>73.58</v>
       </c>
       <c r="B332">
         <v>98.24</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C332">
+        <v>276</v>
+      </c>
+      <c r="D332">
+        <v>33.83</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>80.19</v>
       </c>
       <c r="B333">
         <v>104.13</v>
       </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C333">
+        <v>257</v>
+      </c>
+      <c r="D333">
+        <v>33.35</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>96.88</v>
       </c>
       <c r="B334">
         <v>124.61</v>
       </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C334">
+        <v>265</v>
+      </c>
+      <c r="D334">
+        <v>32.89</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>108.15</v>
       </c>
       <c r="B335">
         <v>144.46</v>
       </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C335">
+        <v>276</v>
+      </c>
+      <c r="D335">
+        <v>32.43</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>122.91</v>
       </c>
       <c r="B336">
         <v>171.04</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C336">
+        <v>257</v>
+      </c>
+      <c r="D336">
+        <v>32.06</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>129.5</v>
       </c>
       <c r="B337">
         <v>159.30000000000001</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C337">
+        <v>163</v>
+      </c>
+      <c r="D337">
+        <v>31.97</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>120.14</v>
       </c>
       <c r="B338">
         <v>154.85</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C338">
+        <v>162</v>
+      </c>
+      <c r="D338">
+        <v>31.86</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>132.53</v>
       </c>
       <c r="B339">
         <v>144.61000000000001</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C339">
+        <v>258</v>
+      </c>
+      <c r="D339">
+        <v>31.51</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>144.03</v>
       </c>
       <c r="B340">
         <v>158.59</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C340">
+        <v>261</v>
+      </c>
+      <c r="D340">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>150.5</v>
       </c>
       <c r="B341">
         <v>189.47</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C341">
+        <v>259</v>
+      </c>
+      <c r="D341">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>169.94</v>
       </c>
       <c r="B342">
         <v>197.66</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C342">
+        <v>270</v>
+      </c>
+      <c r="D342">
+        <v>30.63</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>179.36</v>
       </c>
       <c r="B343">
         <v>174.09</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C343">
+        <v>271</v>
+      </c>
+      <c r="D343">
+        <v>30.38</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>164</v>
       </c>
       <c r="B344">
         <v>160.78</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C344">
+        <v>164</v>
+      </c>
+      <c r="D344">
+        <v>30.38</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>163</v>
       </c>
       <c r="B345">
         <v>157.56</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C345">
+        <v>163</v>
+      </c>
+      <c r="D345">
+        <v>30.38</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>148.47999999999999</v>
       </c>
       <c r="B346">
         <v>145.59</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C346">
+        <v>265</v>
+      </c>
+      <c r="D346">
+        <v>30.06</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>144.99</v>
       </c>
       <c r="B347">
         <v>140.59</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C347">
+        <v>278</v>
+      </c>
+      <c r="D347">
+        <v>29.69</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>152.76</v>
       </c>
       <c r="B348">
         <v>135.16999999999999</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C348">
+        <v>269</v>
+      </c>
+      <c r="D348">
+        <v>29.38</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>171.75</v>
       </c>
       <c r="B349">
         <v>134.80000000000001</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C349">
+        <v>263</v>
+      </c>
+      <c r="D349">
+        <v>29.13</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>221.55</v>
       </c>
       <c r="B350">
         <v>136.35</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C350">
+        <v>263</v>
+      </c>
+      <c r="D350">
+        <v>29.01</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>248.91</v>
       </c>
       <c r="B351">
         <v>134.28</v>
       </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C351">
+        <v>166</v>
+      </c>
+      <c r="D351">
+        <v>29.24</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>286.49</v>
       </c>
       <c r="B352">
         <v>171.09</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C352">
+        <v>162</v>
+      </c>
+      <c r="D352">
+        <v>29.58</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>299.52999999999997</v>
       </c>
       <c r="B353">
         <v>208.84</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C353">
+        <v>258</v>
+      </c>
+      <c r="D353">
+        <v>29.69</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>255</v>
       </c>
       <c r="B354">
         <v>285.07</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C354">
+        <v>255</v>
+      </c>
+      <c r="D354">
+        <v>29.69</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>347.11</v>
       </c>
       <c r="B355">
         <v>344.74</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C355">
+        <v>264</v>
+      </c>
+      <c r="D355">
+        <v>29.92</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>306.58</v>
       </c>
       <c r="B356">
         <v>322.25</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C356">
+        <v>265</v>
+      </c>
+      <c r="D356">
+        <v>30.03</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>221.42</v>
       </c>
       <c r="B357">
         <v>249.38</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C357">
+        <v>263</v>
+      </c>
+      <c r="D357">
+        <v>29.92</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>200.26</v>
       </c>
       <c r="B358">
         <v>197.7</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C358">
+        <v>167</v>
+      </c>
+      <c r="D358">
+        <v>30.01</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>179.63</v>
       </c>
       <c r="B359">
         <v>197.96</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C359">
+        <v>163</v>
+      </c>
+      <c r="D359">
+        <v>30.06</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>170.32</v>
       </c>
       <c r="B360">
         <v>186.09</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C360">
+        <v>162</v>
+      </c>
+      <c r="D360">
+        <v>30.08</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>186.96</v>
       </c>
       <c r="B361">
         <v>204.42</v>
       </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C361">
+        <v>162</v>
+      </c>
+      <c r="D361">
+        <v>30.15</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>202.77</v>
       </c>
       <c r="B362">
         <v>211.18</v>
       </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C362">
+        <v>261</v>
+      </c>
+      <c r="D362">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>184.05</v>
       </c>
       <c r="B363">
         <v>183.38</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C363">
+        <v>209</v>
+      </c>
+      <c r="D363">
+        <v>29.92</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>167.44</v>
       </c>
       <c r="B364">
         <v>174.11</v>
       </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C364">
+        <v>209</v>
+      </c>
+      <c r="D364">
+        <v>29.81</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>179.63</v>
       </c>
       <c r="B365">
         <v>183.19</v>
       </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C365">
+        <v>163</v>
+      </c>
+      <c r="D365">
+        <v>29.85</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>203.57</v>
       </c>
       <c r="B366">
         <v>196.73</v>
       </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C366">
+        <v>162</v>
+      </c>
+      <c r="D366">
+        <v>29.97</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>228.54</v>
       </c>
       <c r="B367">
         <v>230.05</v>
+      </c>
+      <c r="C367">
+        <v>162</v>
+      </c>
+      <c r="D367">
+        <v>30.15</v>
       </c>
     </row>
   </sheetData>
